--- a/data/trans_bre/P34A_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.909183180454327</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.910025492398796</v>
+        <v>6.91002549239882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1020275019443606</v>
@@ -649,7 +649,7 @@
         <v>0.2012249623559706</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1519792147542672</v>
+        <v>0.1519792147542676</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3898843746714037</v>
+        <v>-0.4565183206127025</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.660736065987694</v>
+        <v>5.82489686428997</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.909001378107633</v>
+        <v>3.598876413679791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.090880931951133</v>
+        <v>1.196142894549425</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.006660733249610137</v>
+        <v>-0.00794257817651829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2004956065227367</v>
+        <v>0.2007138304789826</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09100066556119164</v>
+        <v>0.08680627610498678</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02194651171705121</v>
+        <v>0.02375727892041368</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.92320781683368</v>
+        <v>10.54860712963132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.08153701736023</v>
+        <v>13.71124353430922</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.2666206287077</v>
+        <v>12.01325244991155</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.9738510519834</v>
+        <v>13.00446403249881</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2175156468966375</v>
+        <v>0.2167559397650446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5866690961719285</v>
+        <v>0.5767919228186941</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3317287750528898</v>
+        <v>0.3250817408569735</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3373713445146946</v>
+        <v>0.3161200827297796</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.753058485694831</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.41990551515103</v>
+        <v>5.419905515151036</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.01192637614311461</v>
@@ -749,7 +749,7 @@
         <v>0.2665180557433978</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1399204608611448</v>
+        <v>0.139920460861145</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.943501460181507</v>
+        <v>-4.954737907820625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.842853412800316</v>
+        <v>2.785248077430303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.212202647554366</v>
+        <v>4.215050763406719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6924384090331004</v>
+        <v>0.543894056748045</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1080392559084466</v>
+        <v>-0.1084123739193195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1096310076251899</v>
+        <v>0.1136665570366141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1207972695210858</v>
+        <v>0.1209699443568443</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01679677621204553</v>
+        <v>0.01398997772032087</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.003023289669732</v>
+        <v>3.824653889692633</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.4246158788207</v>
+        <v>10.53569835779629</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.8414665990247</v>
+        <v>13.45674315128844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.471124848240082</v>
+        <v>9.622016299968799</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09709788498987872</v>
+        <v>0.09377755820910225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4889272772460612</v>
+        <v>0.5050021019001302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4189456893146554</v>
+        <v>0.4452710988090876</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2577877681210592</v>
+        <v>0.267480175541525</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.218067076764985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.75350234839958</v>
+        <v>5.753502348399575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1098438059483277</v>
@@ -849,7 +849,7 @@
         <v>0.2890268850101165</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1814683912120387</v>
+        <v>0.1814683912120385</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3269067211632542</v>
+        <v>-0.1340137780449688</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.056057355284763</v>
+        <v>2.732860005621125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.289647712589736</v>
+        <v>4.023133815067555</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.038585615488525</v>
+        <v>1.981147266589785</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.006709337529505361</v>
+        <v>-0.004509747398087493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.135465972231521</v>
+        <v>0.113778864547029</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1263273418705047</v>
+        <v>0.1176609275343565</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.06072001698574244</v>
+        <v>0.05634474416399237</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.508884078815756</v>
+        <v>8.104041559957682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.33032503727883</v>
+        <v>10.91052966359417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.01249415989721</v>
+        <v>14.07233889857009</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.517031618951126</v>
+        <v>9.943203923330172</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.253511438993519</v>
+        <v>0.2390965770938299</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6148490339999655</v>
+        <v>0.5787500618356278</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4832994284559189</v>
+        <v>0.4761112152419613</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3273822927581307</v>
+        <v>0.3397107047160322</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.687845927822725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.139101666413909</v>
+        <v>8.139101666413911</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2306605093196292</v>
@@ -949,7 +949,7 @@
         <v>0.369464032308825</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.353127348211775</v>
+        <v>0.3531273482117751</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.092134352989918</v>
+        <v>0.5559685379830666</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.456360965866058</v>
+        <v>4.459629920238012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.524768834946239</v>
+        <v>4.234058723173026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.116081542697469</v>
+        <v>3.888151260749806</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02496843839631774</v>
+        <v>0.01070488276042258</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2270463276117219</v>
+        <v>0.2244385791316232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1163487682688567</v>
+        <v>0.1367233433631372</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1623412595758339</v>
+        <v>0.1539416239516704</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.81074296320222</v>
+        <v>15.17320475283272</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.21411128433889</v>
+        <v>15.69714213541543</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.67226579953791</v>
+        <v>15.81487371042559</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.47414412684127</v>
+        <v>12.24682508007093</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5042835777658227</v>
+        <v>0.4828916048064112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.053467055824488</v>
+        <v>1.093379714877218</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6739873931434558</v>
+        <v>0.6818640010846178</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5979293861553913</v>
+        <v>0.5779317820050462</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.591255967778355</v>
+        <v>2.42379121336755</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.321285206227192</v>
+        <v>6.155832011387782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.7262386376084</v>
+        <v>6.298071615092195</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.884701882703847</v>
+        <v>4.846665462285761</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06194343130573882</v>
+        <v>0.05725668344647408</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2687808248112115</v>
+        <v>0.2553958514604308</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1926840390496135</v>
+        <v>0.1802731015361968</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1425221190517625</v>
+        <v>0.1414070350767738</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.363780127631059</v>
+        <v>7.102193769078278</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.69190000203599</v>
+        <v>10.43910442461156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.46125342603383</v>
+        <v>11.14617167084838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.42609940087304</v>
+        <v>9.573506641048239</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1851267293592052</v>
+        <v>0.1793238419365858</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5018411425505437</v>
+        <v>0.4887506105987033</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3491032584540322</v>
+        <v>0.3453345048136061</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.29529323711501</v>
+        <v>0.3039306420772375</v>
       </c>
     </row>
     <row r="19">
